--- a/data/DeftaultData.xlsx
+++ b/data/DeftaultData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielaServidone\Desktop\Gitlab\examples\application-examples\vessel-scheduling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FF7E90-D375-425C-A23D-5EBE73AF552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD06936-22A6-4A46-9E5C-9E957B00DF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" tabRatio="948" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16200" yWindow="2040" windowWidth="16410" windowHeight="15345" tabRatio="948" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Horizon" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="CargoData" sheetId="2" r:id="rId3"/>
     <sheet name="LocationData" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1209,7 +1222,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>16947</v>
+        <v>1694700</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1279,7 +1292,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>19181</v>
+        <v>1918100</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1302,7 +1315,7 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>18465</v>
+        <v>1846500</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -1325,7 +1338,7 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>12215</v>
+        <v>1221500</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
@@ -1348,7 +1361,7 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>11210</v>
+        <v>1121000</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -1371,7 +1384,7 @@
         <v>38</v>
       </c>
       <c r="D7">
-        <v>13006</v>
+        <v>1300600</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -1394,7 +1407,7 @@
         <v>43</v>
       </c>
       <c r="D8">
-        <v>12757</v>
+        <v>1275700</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -1417,7 +1430,7 @@
         <v>47</v>
       </c>
       <c r="D9">
-        <v>10570</v>
+        <v>1057000</v>
       </c>
       <c r="E9" t="s">
         <v>48</v>
@@ -1440,7 +1453,7 @@
         <v>52</v>
       </c>
       <c r="D10">
-        <v>18900</v>
+        <v>1890000</v>
       </c>
       <c r="E10" t="s">
         <v>53</v>
@@ -1463,7 +1476,7 @@
         <v>37</v>
       </c>
       <c r="D11">
-        <v>16309</v>
+        <v>1630900</v>
       </c>
       <c r="E11" t="s">
         <v>57</v>
@@ -1486,7 +1499,7 @@
         <v>61</v>
       </c>
       <c r="D12">
-        <v>11811</v>
+        <v>1181100</v>
       </c>
       <c r="E12" t="s">
         <v>62</v>
@@ -1509,7 +1522,7 @@
         <v>65</v>
       </c>
       <c r="D13">
-        <v>14651</v>
+        <v>1465100</v>
       </c>
       <c r="E13" t="s">
         <v>66</v>
@@ -1532,7 +1545,7 @@
         <v>70</v>
       </c>
       <c r="D14">
-        <v>12041</v>
+        <v>1204100</v>
       </c>
       <c r="E14" t="s">
         <v>71</v>
@@ -1555,7 +1568,7 @@
         <v>75</v>
       </c>
       <c r="D15">
-        <v>11906</v>
+        <v>1190600</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
@@ -1578,7 +1591,7 @@
         <v>79</v>
       </c>
       <c r="D16">
-        <v>13943</v>
+        <v>1394300</v>
       </c>
       <c r="E16" t="s">
         <v>80</v>

--- a/data/DeftaultData.xlsx
+++ b/data/DeftaultData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielaServidone\Desktop\Gitlab\examples\application-examples\vessel-scheduling\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\u\s\nirvana\0267 VesselScheduling\vessel-scheduling Feature SolveService\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD06936-22A6-4A46-9E5C-9E957B00DF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F26812-A0B2-4D44-A763-B1EF5F2C274B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="2040" windowWidth="16410" windowHeight="15345" tabRatio="948" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38310" yWindow="-3510" windowWidth="19170" windowHeight="17280" tabRatio="948" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Horizon" sheetId="9" r:id="rId1"/>
@@ -1108,18 +1108,18 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45069</v>
       </c>
@@ -1138,14 +1138,14 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1220,22 +1220,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>232</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1612,19 +1612,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>3633</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>123</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>124</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>125</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>3451</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>129</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>130</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>3817</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>135</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>140</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>142</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>145</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>146</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>147</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>64</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>150</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>151</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>152</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>154</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>155</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>157</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>158</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>159</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>75</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>162</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>163</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>24</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>164</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>165</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>3615</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>167</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>168</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>169</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>170</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>171</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>172</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>173</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>174</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>61</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>175</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>176</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>177</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>178</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>179</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>52</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>180</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>181</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>182</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>183</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>184</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>185</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>65</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>78</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>81</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>186</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>187</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>188</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>189</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>190</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>191</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>192</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>193</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>194</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>195</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>83</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>79</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>196</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>43</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>197</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>198</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>199</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>200</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>201</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>202</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>203</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>204</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>205</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>206</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>207</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>208</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>209</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>210</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>211</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>212</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>213</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>214</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>215</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>216</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>32</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>217</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>218</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>219</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>220</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>221</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>222</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>223</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>224</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>225</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>226</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>227</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>23</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>228</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>229</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>230</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>231</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E177">
         <v>379</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E178">
         <v>304</v>
       </c>
